--- a/data/field_data/field_data_summer_2017_smr.xlsx
+++ b/data/field_data/field_data_summer_2017_smr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JeremieBoudreault/Google Drive/Coding Projects/Fish_habitat_modelling/data/Field/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JeremieBoudreault/Google Drive/Coding Projects/2_in_progress/habitat_suitability_curves_fda/data/field_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AC17A-67A2-B749-A13C-F1731EDC32B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD36E49-6009-E243-9C90-8776DC3971EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13060" windowHeight="13900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -117,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="137">
   <si>
     <t>Site</t>
   </si>
@@ -535,7 +538,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -827,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1142,6 +1145,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1167,9 +1179,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1487,46 +1496,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="120" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="120" t="s">
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="122"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="125"/>
     </row>
     <row r="2" spans="1:33" s="30" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -49101,1370 +49110,1483 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:H62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="121"/>
+    <col min="3" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="21.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C1" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="L1" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="128"/>
-      <c r="O1" t="s">
+      <c r="M1" s="131"/>
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="120">
+        <f>VLOOKUP(A2, 'Site listes'!A2:C28, 3, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="36">
         <v>442</v>
       </c>
-      <c r="C2" s="44">
+      <c r="D2" s="44">
         <v>42943</v>
       </c>
-      <c r="D2" s="45">
+      <c r="E2" s="45">
         <v>0.47638888888888892</v>
       </c>
-      <c r="E2" s="46">
+      <c r="F2" s="46">
         <v>0.9</v>
       </c>
-      <c r="F2" s="46">
+      <c r="G2" s="46">
         <v>0.8</v>
       </c>
-      <c r="G2" s="36">
+      <c r="H2" s="36">
         <v>1643</v>
       </c>
-      <c r="H2" s="47">
-        <f>G2/30</f>
+      <c r="I2" s="47">
+        <f>H2/30</f>
         <v>54.766666666666666</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="21">
-        <f>AVERAGE(G2:G30)</f>
+      <c r="L2" s="21">
+        <f>AVERAGE(H2:H30)</f>
         <v>1606.72</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="M2">
-        <f>K2/30</f>
+      <c r="N2">
+        <f>L2/30</f>
         <v>53.557333333333332</v>
       </c>
-      <c r="O2">
-        <f>HOUR(D2)</f>
+      <c r="P2">
+        <f>HOUR(E2)</f>
         <v>11</v>
       </c>
-      <c r="P2">
-        <f>MINUTE(D2)</f>
+      <c r="Q2">
+        <f>MINUTE(E2)</f>
         <v>26</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <f>CONCATENATE("SMR", A2)</f>
         <v>SMR1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="120">
+        <f>VLOOKUP(A3, 'Site listes'!A3:C29, 3, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="36">
         <v>483</v>
       </c>
-      <c r="C3" s="44">
+      <c r="D3" s="44">
         <v>42943</v>
       </c>
-      <c r="D3" s="45">
+      <c r="E3" s="45">
         <v>0.67847222222222225</v>
       </c>
-      <c r="E3" s="46">
+      <c r="F3" s="46">
         <v>0.4</v>
       </c>
-      <c r="F3" s="46">
+      <c r="G3" s="46">
         <v>0</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="L3" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="128"/>
-      <c r="O3">
-        <f t="shared" ref="O3:O27" si="0">HOUR(D3)</f>
+      <c r="M3" s="131"/>
+      <c r="P3">
+        <f t="shared" ref="P3:P27" si="0">HOUR(E3)</f>
         <v>16</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P28" si="1">MINUTE(D3)</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q28" si="1">MINUTE(E3)</f>
         <v>17</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q28" si="2">CONCATENATE("SMR", A3)</f>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R28" si="2">CONCATENATE("SMR", A3)</f>
         <v>SMR2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="120">
+        <f>VLOOKUP(A4, 'Site listes'!A4:C30, 3, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="36">
         <v>522</v>
       </c>
-      <c r="C4" s="44">
+      <c r="D4" s="44">
         <v>42944</v>
       </c>
-      <c r="D4" s="45">
+      <c r="E4" s="45">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E4" s="46">
+      <c r="F4" s="46">
         <v>0.5</v>
       </c>
-      <c r="F4" s="46">
+      <c r="G4" s="46">
         <v>0.7</v>
       </c>
-      <c r="G4" s="36">
+      <c r="H4" s="36">
         <v>1770</v>
       </c>
-      <c r="H4" s="47">
-        <f t="shared" ref="H4:H16" si="3">G4/30</f>
+      <c r="I4" s="47">
+        <f t="shared" ref="I4:I16" si="3">H4/30</f>
         <v>59</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="21">
-        <f>STDEV(G2:G30)</f>
+      <c r="L4" s="21">
+        <f>STDEV(H2:H30)</f>
         <v>133.23147776207642</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>46</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f t="shared" si="2"/>
         <v>SMR3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="120">
+        <f>VLOOKUP(A5, 'Site listes'!A5:C31, 3, FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="36">
         <v>555</v>
       </c>
-      <c r="C5" s="44">
+      <c r="D5" s="44">
         <v>42944</v>
       </c>
-      <c r="D5" s="45">
+      <c r="E5" s="45">
         <v>0.51111111111111118</v>
-      </c>
-      <c r="E5" s="46">
-        <v>0.8</v>
       </c>
       <c r="F5" s="46">
         <v>0.8</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="36">
         <v>1782</v>
       </c>
-      <c r="H5" s="47">
+      <c r="I5" s="47">
         <f t="shared" si="3"/>
         <v>59.4</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f t="shared" si="2"/>
         <v>SMR4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="120">
+        <f>VLOOKUP(A6, 'Site listes'!A6:C32, 3, FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="C6" s="36">
         <v>620</v>
       </c>
-      <c r="C6" s="44">
+      <c r="D6" s="44">
         <v>42947</v>
       </c>
-      <c r="D6" s="45">
+      <c r="E6" s="45">
         <v>0.64027777777777783</v>
       </c>
-      <c r="E6" s="46">
+      <c r="F6" s="46">
         <v>0.1</v>
       </c>
-      <c r="F6" s="46">
+      <c r="G6" s="46">
         <v>0</v>
       </c>
-      <c r="G6" s="36">
+      <c r="H6" s="36">
         <v>1604</v>
       </c>
-      <c r="H6" s="47">
+      <c r="I6" s="47">
         <f t="shared" si="3"/>
         <v>53.466666666666669</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="2"/>
         <v>SMR5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="120">
+        <f>VLOOKUP(A7, 'Site listes'!A7:C33, 3, FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="C7" s="36">
         <v>586</v>
       </c>
-      <c r="C7" s="44">
+      <c r="D7" s="44">
         <v>42947</v>
       </c>
-      <c r="D7" s="45">
+      <c r="E7" s="45">
         <v>0.51874999999999993</v>
       </c>
-      <c r="E7" s="46">
+      <c r="F7" s="46">
         <v>0.2</v>
       </c>
-      <c r="F7" s="46">
+      <c r="G7" s="46">
         <v>0.1</v>
       </c>
-      <c r="G7" s="36">
+      <c r="H7" s="36">
         <v>1546</v>
       </c>
-      <c r="H7" s="47">
+      <c r="I7" s="47">
         <f t="shared" si="3"/>
         <v>51.533333333333331</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="J7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f t="shared" si="2"/>
         <v>SMR6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="120">
+        <f>VLOOKUP(A8, 'Site listes'!A8:C34, 3, FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="C8" s="36">
         <v>665</v>
       </c>
-      <c r="C8" s="44">
+      <c r="D8" s="44">
         <v>42948</v>
       </c>
-      <c r="D8" s="45">
+      <c r="E8" s="45">
         <v>0.4069444444444445</v>
       </c>
-      <c r="E8" s="46">
+      <c r="F8" s="46">
         <v>0.3</v>
       </c>
-      <c r="F8" s="46">
+      <c r="G8" s="46">
         <v>0.5</v>
       </c>
-      <c r="G8" s="36">
+      <c r="H8" s="36">
         <v>1419</v>
       </c>
-      <c r="H8" s="47">
+      <c r="I8" s="47">
         <f t="shared" si="3"/>
         <v>47.3</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f t="shared" si="2"/>
         <v>SMR7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>8</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="120">
+        <f>VLOOKUP(A9, 'Site listes'!A9:C35, 3, FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="36">
         <v>701</v>
       </c>
-      <c r="C9" s="44">
+      <c r="D9" s="44">
         <v>42948</v>
       </c>
-      <c r="D9" s="45">
+      <c r="E9" s="45">
         <v>0.51527777777777783</v>
-      </c>
-      <c r="E9" s="46">
-        <v>0</v>
       </c>
       <c r="F9" s="46">
         <v>0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="46">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
         <v>1549</v>
       </c>
-      <c r="H9" s="47">
+      <c r="I9" s="47">
         <f t="shared" si="3"/>
         <v>51.633333333333333</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="J9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f t="shared" si="2"/>
         <v>SMR8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="120">
+        <f>VLOOKUP(A10, 'Site listes'!A10:C36, 3, FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="C10" s="36">
         <v>732</v>
       </c>
-      <c r="C10" s="44">
+      <c r="D10" s="44">
         <v>42948</v>
       </c>
-      <c r="D10" s="45">
+      <c r="E10" s="45">
         <v>0.61111111111111105</v>
-      </c>
-      <c r="E10" s="46">
-        <v>0</v>
       </c>
       <c r="F10" s="46">
         <v>0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="46">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36">
         <v>1726</v>
       </c>
-      <c r="H10" s="47">
+      <c r="I10" s="47">
         <f t="shared" si="3"/>
         <v>57.533333333333331</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="2"/>
         <v>SMR9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="120">
+        <f>VLOOKUP(A11, 'Site listes'!A11:C37, 3, FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="C11" s="36">
         <v>763</v>
       </c>
-      <c r="C11" s="44">
+      <c r="D11" s="44">
         <v>42949</v>
       </c>
-      <c r="D11" s="45">
+      <c r="E11" s="45">
         <v>0.37916666666666665</v>
-      </c>
-      <c r="E11" s="46">
-        <v>0</v>
       </c>
       <c r="F11" s="46">
         <v>0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="46">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
         <v>1526</v>
       </c>
-      <c r="H11" s="47">
+      <c r="I11" s="47">
         <f t="shared" si="3"/>
         <v>50.866666666666667</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="J11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="2"/>
         <v>SMR10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="120">
+        <f>VLOOKUP(A12, 'Site listes'!A12:C38, 3, FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="C12" s="36">
         <v>795</v>
       </c>
-      <c r="C12" s="44">
+      <c r="D12" s="44">
         <v>42949</v>
       </c>
-      <c r="D12" s="45">
+      <c r="E12" s="45">
         <v>0.51736111111111105</v>
       </c>
-      <c r="E12" s="46">
+      <c r="F12" s="46">
         <v>0.5</v>
       </c>
-      <c r="F12" s="46">
+      <c r="G12" s="46">
         <v>0.1</v>
       </c>
-      <c r="G12" s="36">
+      <c r="H12" s="36">
         <v>1545</v>
       </c>
-      <c r="H12" s="47">
+      <c r="I12" s="47">
         <f t="shared" si="3"/>
         <v>51.5</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="J12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" t="str">
         <f t="shared" si="2"/>
         <v>SMR11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="120">
+        <f>VLOOKUP(A13, 'Site listes'!A13:C39, 3, FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="C13" s="36">
         <v>826</v>
       </c>
-      <c r="C13" s="44">
+      <c r="D13" s="44">
         <v>42954</v>
       </c>
-      <c r="D13" s="45">
+      <c r="E13" s="45">
         <v>0.55555555555555558</v>
       </c>
-      <c r="E13" s="46">
+      <c r="F13" s="46">
         <v>0.9</v>
       </c>
-      <c r="F13" s="46">
-        <v>1</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="G13" s="46">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
         <v>1666</v>
       </c>
-      <c r="H13" s="47">
+      <c r="I13" s="47">
         <f t="shared" si="3"/>
         <v>55.533333333333331</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="J13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>49</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13" t="str">
         <f t="shared" si="2"/>
         <v>SMR12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="120">
+        <f>VLOOKUP(A14, 'Site listes'!A14:C40, 3, FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="C14" s="36">
         <v>857</v>
       </c>
-      <c r="C14" s="44">
+      <c r="D14" s="44">
         <v>42954</v>
       </c>
-      <c r="D14" s="45">
+      <c r="E14" s="45">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E14" s="46">
-        <v>1</v>
-      </c>
       <c r="F14" s="46">
+        <v>1</v>
+      </c>
+      <c r="G14" s="46">
         <v>0.8</v>
       </c>
-      <c r="G14" s="36">
+      <c r="H14" s="36">
         <v>1720</v>
       </c>
-      <c r="H14" s="47">
+      <c r="I14" s="47">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="J14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" t="str">
         <f t="shared" si="2"/>
         <v>SMR13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="120">
+        <f>VLOOKUP(A15, 'Site listes'!A15:C41, 3, FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="C15" s="36">
         <v>889</v>
       </c>
-      <c r="C15" s="44">
+      <c r="D15" s="44">
         <v>42955</v>
       </c>
-      <c r="D15" s="45">
+      <c r="E15" s="45">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E15" s="46">
-        <v>1</v>
-      </c>
       <c r="F15" s="46">
         <v>1</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="46">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36">
         <v>1968</v>
       </c>
-      <c r="H15" s="47">
+      <c r="I15" s="47">
         <f t="shared" si="3"/>
         <v>65.599999999999994</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="J15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" t="str">
         <f t="shared" si="2"/>
         <v>SMR14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="120">
+        <f>VLOOKUP(A16, 'Site listes'!A16:C42, 3, FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="C16" s="36">
         <v>951</v>
       </c>
-      <c r="C16" s="44">
+      <c r="D16" s="44">
         <v>42955</v>
       </c>
-      <c r="D16" s="45">
+      <c r="E16" s="45">
         <v>0.73958333333333337</v>
       </c>
-      <c r="E16" s="46">
-        <v>1</v>
-      </c>
       <c r="F16" s="46">
+        <v>1</v>
+      </c>
+      <c r="G16" s="46">
         <v>0</v>
       </c>
-      <c r="G16" s="36">
+      <c r="H16" s="36">
         <v>1459</v>
       </c>
-      <c r="H16" s="47">
+      <c r="I16" s="47">
         <f t="shared" si="3"/>
         <v>48.633333333333333</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="J16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="2"/>
         <v>SMR15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="120">
+        <f>VLOOKUP(A17, 'Site listes'!A17:C43, 3, FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="C17" s="36">
         <v>920</v>
       </c>
-      <c r="C17" s="44">
+      <c r="D17" s="44">
         <v>42955</v>
       </c>
-      <c r="D17" s="45">
+      <c r="E17" s="45">
         <v>0.5625</v>
       </c>
-      <c r="E17" s="46">
-        <v>1</v>
-      </c>
       <c r="F17" s="46">
+        <v>1</v>
+      </c>
+      <c r="G17" s="46">
         <v>0.9</v>
       </c>
-      <c r="G17" s="36">
+      <c r="H17" s="36">
         <v>1668</v>
       </c>
-      <c r="H17" s="47">
-        <f t="shared" ref="H17:H27" si="4">G17/30</f>
+      <c r="I17" s="47">
+        <f t="shared" ref="I17:I27" si="4">H17/30</f>
         <v>55.6</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="J17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17" t="str">
         <f t="shared" si="2"/>
         <v>SMR16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="120">
+        <f>VLOOKUP(A18, 'Site listes'!A18:C44, 3, FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="C18" s="36">
         <v>983</v>
       </c>
-      <c r="C18" s="44">
+      <c r="D18" s="44">
         <v>42956</v>
       </c>
-      <c r="D18" s="45">
+      <c r="E18" s="45">
         <v>0.44444444444444442</v>
       </c>
-      <c r="E18" s="46">
+      <c r="F18" s="46">
         <v>0.3</v>
       </c>
-      <c r="F18" s="46">
+      <c r="G18" s="46">
         <v>0.9</v>
       </c>
-      <c r="G18" s="36">
+      <c r="H18" s="36">
         <v>1633</v>
       </c>
-      <c r="H18" s="47">
+      <c r="I18" s="47">
         <f t="shared" si="4"/>
         <v>54.43333333333333</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="J18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="R18" t="str">
         <f t="shared" si="2"/>
         <v>SMR17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="120">
+        <f>VLOOKUP(A19, 'Site listes'!A19:C45, 3, FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="C19" s="36">
         <v>1014</v>
       </c>
-      <c r="C19" s="44">
+      <c r="D19" s="44">
         <v>42956</v>
       </c>
-      <c r="D19" s="45">
+      <c r="E19" s="45">
         <v>0.60069444444444442</v>
       </c>
-      <c r="E19" s="46">
+      <c r="F19" s="46">
         <v>0.1</v>
       </c>
-      <c r="F19" s="46">
+      <c r="G19" s="46">
         <v>0</v>
       </c>
-      <c r="G19" s="36">
+      <c r="H19" s="36">
         <v>1555</v>
       </c>
-      <c r="H19" s="47">
+      <c r="I19" s="47">
         <f t="shared" si="4"/>
         <v>51.833333333333336</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="J19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>67</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="R19" t="str">
         <f t="shared" si="2"/>
         <v>SMR18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="120">
+        <f>VLOOKUP(A20, 'Site listes'!A20:C46, 3, FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="C20" s="36">
         <v>1045</v>
       </c>
-      <c r="C20" s="44">
+      <c r="D20" s="44">
         <v>42957</v>
       </c>
-      <c r="D20" s="45">
+      <c r="E20" s="45">
         <v>0.43402777777777773</v>
       </c>
-      <c r="E20" s="46">
+      <c r="F20" s="46">
         <v>0</v>
       </c>
-      <c r="F20" s="46">
+      <c r="G20" s="46">
         <v>0.1</v>
       </c>
-      <c r="G20" s="36">
+      <c r="H20" s="36">
         <v>1453</v>
       </c>
-      <c r="H20" s="47">
+      <c r="I20" s="47">
         <f t="shared" si="4"/>
         <v>48.43333333333333</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="J20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="R20" t="str">
         <f t="shared" si="2"/>
         <v>SMR19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>20</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="120">
+        <f>VLOOKUP(A21, 'Site listes'!A21:C47, 3, FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="C21" s="36">
         <v>1076</v>
       </c>
-      <c r="C21" s="44">
+      <c r="D21" s="44">
         <v>42957</v>
       </c>
-      <c r="D21" s="45">
+      <c r="E21" s="45">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E21" s="46">
+      <c r="F21" s="46">
         <v>0.9</v>
       </c>
-      <c r="F21" s="46">
+      <c r="G21" s="46">
         <v>0.8</v>
       </c>
-      <c r="G21" s="36">
+      <c r="H21" s="36">
         <v>1487</v>
       </c>
-      <c r="H21" s="47">
+      <c r="I21" s="47">
         <f t="shared" si="4"/>
         <v>49.56666666666667</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="J21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>53</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="R21" t="str">
         <f t="shared" si="2"/>
         <v>SMR20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="120">
+        <f>VLOOKUP(A22, 'Site listes'!A22:C48, 3, FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="C22" s="36">
         <v>1108</v>
       </c>
-      <c r="C22" s="44">
+      <c r="D22" s="44">
         <v>42957</v>
       </c>
-      <c r="D22" s="45">
+      <c r="E22" s="45">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E22" s="46">
-        <v>1</v>
-      </c>
       <c r="F22" s="46">
         <v>1</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="46">
+        <v>1</v>
+      </c>
+      <c r="H22" s="36">
         <v>1541</v>
       </c>
-      <c r="H22" s="47">
+      <c r="I22" s="47">
         <f t="shared" si="4"/>
         <v>51.366666666666667</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="J22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="R22" t="str">
         <f t="shared" si="2"/>
         <v>SMR21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="120">
+        <f>VLOOKUP(A23, 'Site listes'!A23:C49, 3, FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="C23" s="36">
         <v>1140</v>
       </c>
-      <c r="C23" s="44">
+      <c r="D23" s="44">
         <v>42961</v>
       </c>
-      <c r="D23" s="45">
+      <c r="E23" s="45">
         <v>0.55555555555555558</v>
-      </c>
-      <c r="E23" s="46">
-        <v>0</v>
       </c>
       <c r="F23" s="46">
         <v>0</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="46">
+        <v>0</v>
+      </c>
+      <c r="H23" s="36">
         <v>1381</v>
       </c>
-      <c r="H23" s="47">
+      <c r="I23" s="47">
         <f t="shared" si="4"/>
         <v>46.033333333333331</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="J23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="R23" t="str">
         <f t="shared" si="2"/>
         <v>SMR22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="120">
+        <f>VLOOKUP(A24, 'Site listes'!A24:C50, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="C24" s="36">
         <v>1171</v>
       </c>
-      <c r="C24" s="44">
+      <c r="D24" s="44">
         <v>42961</v>
       </c>
-      <c r="D24" s="45">
+      <c r="E24" s="45">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="E24" s="46">
-        <v>0</v>
       </c>
       <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="46">
+        <v>0</v>
+      </c>
+      <c r="H24" s="36">
         <v>1756</v>
       </c>
-      <c r="H24" s="47">
+      <c r="I24" s="47">
         <f t="shared" si="4"/>
         <v>58.533333333333331</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="J24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24" t="str">
         <f t="shared" si="2"/>
         <v>SMR23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="120">
+        <f>VLOOKUP(A25, 'Site listes'!A25:C51, 3, FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="C25" s="36">
         <v>1203</v>
       </c>
-      <c r="C25" s="44">
+      <c r="D25" s="44">
         <v>42962</v>
       </c>
-      <c r="D25" s="45">
+      <c r="E25" s="45">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E25" s="46">
+      <c r="F25" s="46">
         <v>0.9</v>
       </c>
-      <c r="F25" s="46">
+      <c r="G25" s="46">
         <v>0.6</v>
       </c>
-      <c r="G25" s="36">
+      <c r="H25" s="36">
         <v>1665</v>
       </c>
-      <c r="H25" s="47">
+      <c r="I25" s="47">
         <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="J25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="2"/>
         <v>SMR24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="120">
+        <f>VLOOKUP(A26, 'Site listes'!A26:C52, 3, FALSE)</f>
+        <v>999</v>
+      </c>
+      <c r="C26" s="36">
         <v>1234</v>
       </c>
-      <c r="C26" s="44">
+      <c r="D26" s="44">
         <v>42962</v>
       </c>
-      <c r="D26" s="45">
+      <c r="E26" s="45">
         <v>0.59375</v>
       </c>
-      <c r="E26" s="46">
+      <c r="F26" s="46">
         <v>0.4</v>
       </c>
-      <c r="F26" s="46">
-        <v>1</v>
-      </c>
-      <c r="G26" s="36">
+      <c r="G26" s="46">
+        <v>1</v>
+      </c>
+      <c r="H26" s="36">
         <v>1552</v>
       </c>
-      <c r="H26" s="47">
+      <c r="I26" s="47">
         <f t="shared" si="4"/>
         <v>51.733333333333334</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="J26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="R26" t="str">
         <f t="shared" si="2"/>
         <v>SMR25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="120">
+        <f>VLOOKUP(A27, 'Site listes'!A27:C53, 3, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="36">
         <v>1265</v>
       </c>
-      <c r="C27" s="44">
+      <c r="D27" s="44">
         <v>42963</v>
       </c>
-      <c r="D27" s="45">
+      <c r="E27" s="45">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E27" s="46">
+      <c r="F27" s="46">
         <v>0.2</v>
       </c>
-      <c r="F27" s="46">
+      <c r="G27" s="46">
         <v>0.3</v>
       </c>
-      <c r="G27" s="36">
+      <c r="H27" s="36">
         <v>1554</v>
       </c>
-      <c r="H27" s="47">
+      <c r="I27" s="47">
         <f t="shared" si="4"/>
         <v>51.8</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="J27" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="R27" t="str">
         <f t="shared" si="2"/>
         <v>SMR26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="120">
+        <f>VLOOKUP(A28, 'Site listes'!A28:C54, 3, FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="C28" s="16">
         <v>1296</v>
       </c>
-      <c r="C28" s="48">
+      <c r="D28" s="48">
         <v>42963</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="49">
+      <c r="F28" s="49">
         <v>0.7</v>
       </c>
-      <c r="F28" s="49">
+      <c r="G28" s="49">
         <v>0.2</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="H28" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="9"/>
-      <c r="O28">
+      <c r="I28" s="50"/>
+      <c r="J28" s="9"/>
+      <c r="P28">
         <v>15</v>
       </c>
-      <c r="P28" t="e">
+      <c r="Q28" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="R28" t="str">
         <f t="shared" si="2"/>
         <v>SMR27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E29" s="5"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E30" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="83"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E31" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="83"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="83"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E32" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="83"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="83"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="83"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="83"/>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="83"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="83"/>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="83"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="83"/>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="83"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="83"/>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="83"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="83"/>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G38" s="4"/>
-      <c r="H38" s="83"/>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G39" s="4"/>
-      <c r="H39" s="83"/>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G40" s="4"/>
-      <c r="H40" s="83"/>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G41" s="4"/>
-      <c r="H41" s="83"/>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G42" s="4"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G43" s="4"/>
-      <c r="H43" s="83"/>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G44" s="4"/>
-      <c r="H44" s="83"/>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G45" s="4"/>
-      <c r="H45" s="83"/>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G46" s="4"/>
-      <c r="H46" s="83"/>
-    </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G47" s="4"/>
-      <c r="H47" s="83"/>
-    </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G48" s="4"/>
-      <c r="H48" s="83"/>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G49" s="4"/>
-      <c r="H49" s="83"/>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G50" s="4"/>
-      <c r="H50" s="83"/>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G51" s="4"/>
-      <c r="H51" s="83"/>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G52" s="4"/>
-      <c r="H52" s="83"/>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G53" s="4"/>
-      <c r="H53" s="83"/>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G54" s="4"/>
-      <c r="H54" s="83"/>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G55" s="4"/>
-      <c r="H55" s="83"/>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G56" s="4"/>
-      <c r="H56" s="83"/>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G57" s="4"/>
-      <c r="H57" s="83"/>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G58" s="37"/>
-      <c r="H58" s="84"/>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G62" s="129">
-        <f>AVERAGE(H2:H58)</f>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="83"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="4"/>
+      <c r="I38" s="83"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="4"/>
+      <c r="I39" s="83"/>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="83"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="4"/>
+      <c r="I41" s="83"/>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+      <c r="I42" s="83"/>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="4"/>
+      <c r="I43" s="83"/>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+      <c r="I44" s="83"/>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="4"/>
+      <c r="I45" s="83"/>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+      <c r="I46" s="83"/>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+      <c r="I47" s="83"/>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="4"/>
+      <c r="I48" s="83"/>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="4"/>
+      <c r="I49" s="83"/>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="4"/>
+      <c r="I50" s="83"/>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="4"/>
+      <c r="I51" s="83"/>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+      <c r="I52" s="83"/>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H53" s="4"/>
+      <c r="I53" s="83"/>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+      <c r="I54" s="83"/>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="83"/>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="83"/>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H57" s="4"/>
+      <c r="I57" s="83"/>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H58" s="37"/>
+      <c r="I58" s="84"/>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H62" s="122">
+        <f>AVERAGE(I2:I58)</f>
         <v>53.557333333333325</v>
       </c>
-      <c r="H62" s="129">
-        <f>_xlfn.STDEV.P(H2:H58)</f>
+      <c r="I62" s="122">
+        <f>_xlfn.STDEV.P(I2:I58)</f>
         <v>4.3513218425873506</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
